--- a/docs/excel/TActivity_list.xlsx
+++ b/docs/excel/TActivity_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -167,9 +167,6 @@
     <t>分享</t>
   </si>
   <si>
-    <t>resGroup</t>
-  </si>
-  <si>
     <t>activity_common</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>activity_share</t>
   </si>
   <si>
-    <t>keepDayEnd</t>
-  </si>
-  <si>
     <t>2017,1,1,0,0,0</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
   </si>
   <si>
     <t>GameHallPanel,signBtn</t>
-  </si>
-  <si>
-    <t>des</t>
   </si>
   <si>
     <r>
@@ -253,9 +244,6 @@
     <t>FirstPayPanel</t>
   </si>
   <si>
-    <t>subType</t>
-  </si>
-  <si>
     <t>firstPay</t>
   </si>
   <si>
@@ -266,15 +254,6 @@
   </si>
   <si>
     <t>2018,2,28,23,59,59</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>imgId</t>
   </si>
   <si>
     <t>activity_shl</t>
@@ -477,6 +456,38 @@
   </si>
   <si>
     <t>GameHallPanel,shareBtn</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImgId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepDayEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -895,9 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -935,25 +944,25 @@
         <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>26</v>
@@ -962,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>28</v>
@@ -976,16 +985,52 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1017,16 +1062,16 @@
         <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N5" s="5">
         <v>1</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="5">
         <v>1</v>
@@ -1043,27 +1088,27 @@
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="5">
         <v>1</v>
@@ -1080,25 +1125,25 @@
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="Q7" s="5">
         <v>1</v>
@@ -1115,25 +1160,25 @@
         <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="5">
         <v>1</v>
@@ -1156,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="5">
         <v>1</v>
@@ -1182,19 +1227,19 @@
         <v>43</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N10" s="5">
         <v>1</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
@@ -1211,25 +1256,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5">
         <v>2592000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
@@ -1252,22 +1297,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N12" s="5">
         <v>1</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>

--- a/docs/excel/TActivity_list.xlsx
+++ b/docs/excel/TActivity_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -488,6 +488,12 @@
   <si>
     <t>ResGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>ListSpliter: ","</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -916,7 +924,7 @@
     <col min="4" max="4" width="8.796875" style="5"/>
     <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.19921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="5" customWidth="1"/>
     <col min="10" max="12" width="8.796875" style="5"/>
@@ -1003,10 +1011,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>81</v>
@@ -1039,6 +1047,12 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>

--- a/docs/excel/TActivity_list.xlsx
+++ b/docs/excel/TActivity_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t>ListSpliter: ","</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -912,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1022,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>81</v>
@@ -1035,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>18</v>
@@ -1051,6 +1059,9 @@
         <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>90</v>
       </c>
     </row>
